--- a/biology/Zoologie/Bogertophis_subocularis/Bogertophis_subocularis.xlsx
+++ b/biology/Zoologie/Bogertophis_subocularis/Bogertophis_subocularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bogertophis subocularis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bogertophis subocularis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis (dans le sud du Nouveau-Mexique et l'ouest du Texas) et au Mexique (dans le nord-est de Chihuahua et de Durango, et dans le Coahuila)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis (dans le sud du Nouveau-Mexique et l'ouest du Texas) et au Mexique (dans le nord-est de Chihuahua et de Durango, et dans le Coahuila).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Bogertophis subocularis amplinotus Webb, 1990 - État de Durango au Mexique
 Bogertophis subocularis subocularis (Brown, 1901)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown, 1901 : A New Species of Coluber from Western Texas. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 53, p. 492-495 (texte intégral).
 Webb, 1990 : Description of a new subspecies of Bogertophis subocularis (Brown) from northern Mexico (Serpentes: Colubridae). The Texas Journal of Science, vol. 42, no 3, p. 227-243 (texte intégral).</t>
